--- a/data/trans_dic/P16A01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A01-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16A01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A01-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,59%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>3,58; 12,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>1,57; 11,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>3,84; 14,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>0,0; 4,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>1,42; 8,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>1,05; 8,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>3,24; 13,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>7,07; 16,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>3,13; 9,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>1,96; 7,98</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>4,31; 11,01</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>4,11; 9,86</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,1%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>3,4; 6,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>8,59; 13,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>3,87; 7,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>5,02; 9,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>2,67; 6,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>7,09; 11,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>6,84; 11,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,98; 6,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>3,44; 5,78</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>8,29; 12,08</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>5,8; 8,92</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,9; 7,6</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,97%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>6,13; 9,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>5,66; 9,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>6,73; 10,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>5,31; 9,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>4,61; 7,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>6,09; 9,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>6,65; 10,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>7,26; 10,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>5,82; 8,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>6,4; 8,83</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>7,24; 9,82</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>6,77; 9,37</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,85%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>5,24; 9,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>8,9; 13,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>5,04; 8,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>4,81; 8,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>4,72; 8,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>5,97; 9,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>5,21; 9,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>3,46; 7,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>5,59; 8,35</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>7,84; 10,96</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>5,57; 8,25</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>4,37; 7,41</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,22%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,83; 9,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>8,19; 12,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>7,02; 10,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,99; 9,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>6,61; 10,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>7,43; 11,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>7,37; 11,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>7,33; 10,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>6,63; 9,05</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>8,33; 11,1</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>7,84; 10,48</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>7,08; 9,46</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,23%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,11; 7,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>8,38; 10,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,81; 8,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,93; 7,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,65; 7,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,3; 9,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,4; 9,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>6,63; 8,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>6,1; 7,31</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>8,17; 9,64</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>7,4; 8,78</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>6,58; 7,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A01-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>6,16%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,58; 12,97</t>
+          <t>3,86; 7,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 11,83</t>
+          <t>7,86; 12,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,84; 14,09</t>
+          <t>4,24; 7,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,53</t>
+          <t>4,32; 8,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 8,39</t>
+          <t>2,81; 5,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 8,66</t>
+          <t>6,84; 10,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,24; 13,1</t>
+          <t>6,45; 10,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,07; 16,23</t>
+          <t>4,96; 7,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 9,46</t>
+          <t>3,68; 5,85</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 7,98</t>
+          <t>7,72; 10,85</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,31; 11,01</t>
+          <t>5,93; 8,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,11; 9,86</t>
+          <t>5,12; 7,5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>7,38%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 6,72</t>
+          <t>6,13; 9,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,59; 13,95</t>
+          <t>5,66; 9,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,87; 7,68</t>
+          <t>6,73; 10,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,02; 9,3</t>
+          <t>3,06; 8,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 6,14</t>
+          <t>4,61; 7,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,09; 11,88</t>
+          <t>6,09; 9,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,84; 11,7</t>
+          <t>6,65; 10,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,98; 6,96</t>
+          <t>7,34; 10,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,44; 5,78</t>
+          <t>5,82; 8,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,29; 12,08</t>
+          <t>6,4; 8,83</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,8; 8,92</t>
+          <t>7,24; 9,82</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,9; 7,6</t>
+          <t>5,11; 8,89</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>5,36%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,13; 9,75</t>
+          <t>5,24; 9,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,66; 9,26</t>
+          <t>8,9; 13,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,73; 10,38</t>
+          <t>5,04; 8,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,31; 9,11</t>
+          <t>4,82; 9,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,61; 7,86</t>
+          <t>4,72; 8,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,09; 9,5</t>
+          <t>5,97; 9,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,65; 10,1</t>
+          <t>5,21; 9,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,26; 10,69</t>
+          <t>2,24; 6,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,82; 8,15</t>
+          <t>5,59; 8,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,4; 8,83</t>
+          <t>7,84; 10,96</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,24; 9,82</t>
+          <t>5,57; 8,25</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,77; 9,37</t>
+          <t>3,27; 6,92</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>8,08%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,24; 9,45</t>
+          <t>5,83; 9,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,9; 13,8</t>
+          <t>8,19; 12,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 8,73</t>
+          <t>7,02; 10,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 8,85</t>
+          <t>6,08; 10,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,72; 8,33</t>
+          <t>6,61; 10,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,97; 9,83</t>
+          <t>7,43; 11,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,21; 9,03</t>
+          <t>7,37; 11,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,46; 7,17</t>
+          <t>6,56; 9,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,59; 8,35</t>
+          <t>6,63; 9,05</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,84; 10,96</t>
+          <t>8,33; 11,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,57; 8,25</t>
+          <t>7,84; 10,48</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,37; 7,41</t>
+          <t>6,77; 9,35</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>6,89%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,83; 9,0</t>
+          <t>6,11; 7,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,19; 12,43</t>
+          <t>8,38; 10,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,02; 10,68</t>
+          <t>6,81; 8,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,99; 9,91</t>
+          <t>5,07; 7,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,61; 10,0</t>
+          <t>5,65; 7,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,43; 11,01</t>
+          <t>7,3; 9,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,37; 11,21</t>
+          <t>7,4; 9,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,33; 10,26</t>
+          <t>5,68; 8,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,63; 9,05</t>
+          <t>6,1; 7,31</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,33; 11,1</t>
+          <t>8,17; 9,64</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,84; 10,48</t>
+          <t>7,4; 8,78</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,08; 9,46</t>
+          <t>5,96; 7,62</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>6,92%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>9,45%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>7,69%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>6,9%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>6,42%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>8,32%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>8,33%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>7,52%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>6,67%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>8,87%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>8,02%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>7,23%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>6,11; 7,9</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>8,38; 10,51</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>6,81; 8,67</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>5,93; 7,98</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>5,65; 7,33</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>7,3; 9,31</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>7,4; 9,33</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>6,63; 8,36</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>6,1; 7,31</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>8,17; 9,64</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>7,4; 8,78</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>6,58; 7,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16A01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A01-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,86; 7,51</t>
+          <t>3,84; 7,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,86; 12,42</t>
+          <t>7,89; 12,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,24; 7,96</t>
+          <t>4,28; 7,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,32; 8,08</t>
+          <t>4,19; 7,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,92</t>
+          <t>2,79; 5,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,84; 10,88</t>
+          <t>6,62; 11,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,45; 10,8</t>
+          <t>6,46; 10,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,96; 7,99</t>
+          <t>4,95; 8,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,68; 5,85</t>
+          <t>3,64; 6,08</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,72; 10,85</t>
+          <t>7,71; 10,98</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,93; 8,7</t>
+          <t>5,86; 8,67</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,12; 7,5</t>
+          <t>5,04; 7,39</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,13; 9,75</t>
+          <t>6,19; 9,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,66; 9,26</t>
+          <t>5,74; 9,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,73; 10,38</t>
+          <t>6,8; 10,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,06; 8,67</t>
+          <t>2,94; 8,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,61; 7,86</t>
+          <t>4,55; 7,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,09; 9,5</t>
+          <t>6,07; 9,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,65; 10,1</t>
+          <t>6,5; 10,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,34; 10,78</t>
+          <t>7,54; 10,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,82; 8,15</t>
+          <t>5,85; 8,26</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,4; 8,83</t>
+          <t>6,31; 8,7</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,24; 9,82</t>
+          <t>7,08; 9,7</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,11; 8,89</t>
+          <t>5,03; 8,98</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,24; 9,45</t>
+          <t>5,14; 9,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,9; 13,8</t>
+          <t>8,89; 13,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,04; 8,73</t>
+          <t>5,08; 8,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,82; 9,12</t>
+          <t>4,62; 8,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,72; 8,33</t>
+          <t>4,85; 8,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,97; 9,83</t>
+          <t>6,01; 9,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,21; 9,03</t>
+          <t>5,27; 8,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 6,36</t>
+          <t>2,14; 6,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,59; 8,35</t>
+          <t>5,44; 8,29</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,84; 10,96</t>
+          <t>7,9; 10,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,57; 8,25</t>
+          <t>5,61; 8,25</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,27; 6,92</t>
+          <t>3,45; 6,66</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,83; 9,0</t>
+          <t>5,64; 8,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,19; 12,43</t>
+          <t>8,06; 12,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,02; 10,68</t>
+          <t>7,21; 10,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,08; 10,18</t>
+          <t>6,14; 10,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,61; 10,0</t>
+          <t>6,71; 10,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,43; 11,01</t>
+          <t>7,54; 11,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,37; 11,21</t>
+          <t>7,51; 11,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,56; 9,9</t>
+          <t>6,48; 10,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,63; 9,05</t>
+          <t>6,67; 8,95</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,33; 11,1</t>
+          <t>8,34; 11,06</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,84; 10,48</t>
+          <t>7,85; 10,41</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,77; 9,35</t>
+          <t>6,8; 9,46</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,11; 7,9</t>
+          <t>6,01; 7,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,38; 10,51</t>
+          <t>8,47; 10,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,81; 8,67</t>
+          <t>6,79; 8,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,07; 7,73</t>
+          <t>5,06; 7,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,65; 7,33</t>
+          <t>5,54; 7,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,3; 9,31</t>
+          <t>7,48; 9,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,4; 9,33</t>
+          <t>7,37; 9,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,68; 8,01</t>
+          <t>5,79; 8,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,1; 7,31</t>
+          <t>6,09; 7,37</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,17; 9,64</t>
+          <t>8,16; 9,58</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,4; 8,78</t>
+          <t>7,32; 8,66</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,96; 7,62</t>
+          <t>6,02; 7,73</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>36939</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>69851</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>39906</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>37584</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>28003</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>59199</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>57239</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>43187</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>64942</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>129051</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>97145</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>80771</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>26609; 50307</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>55275; 88945</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>28882; 53491</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>26621; 50184</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>19209; 38765</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>45925; 76676</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>43476; 73113</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>33458; 54387</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>50257; 83979</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>107540; 153101</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>78973; 116850</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>66054; 96894</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>75142</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>74562</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>86431</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>72922</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>58384</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>78523</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>86482</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>85744</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>133526</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>153085</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>172913</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>158666</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>59517; 93710</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>58465; 93496</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>69524; 107505</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>35048; 103219</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>44103; 75002</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>62353; 97656</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>67767; 106265</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>72253; 104632</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>112860; 159455</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>129030; 177790</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>146153; 200274</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>108225; 193139</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>47500</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>83089</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>51737</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>45646</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>44573</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>60443</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>54949</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>41946</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>92073</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>143532</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>106686</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>87592</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>34871; 63867</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>67269; 104027</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>38554; 67014</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>32530; 63218</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>33180; 58256</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>46616; 76664</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>41335; 69953</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19968; 58824</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>74046; 112880</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>121039; 167504</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>86625; 127387</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>56467; 108879</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>67138</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>95485</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>83058</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>72479</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>86124</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>96793</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>96609</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>90615</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>153263</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>192278</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>179667</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>163094</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>53142; 84159</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>76082; 117753</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>67568; 101767</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>56884; 95084</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>69673; 103927</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>79085; 116682</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>78359; 117544</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>70723; 109096</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>132045; 177233</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>166206; 220487</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>155583; 206169</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>137159; 190836</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>226720</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>322987</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>261133</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>228631</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>217084</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>294958</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>295278</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>261492</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>443804</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>617945</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>556411</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>490123</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>196981; 255794</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>289602; 364737</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>230616; 296394</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>174870; 265333</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>187296; 248215</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>265277; 330185</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>261087; 328950</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>211773; 296798</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>405507; 490355</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>568021; 667252</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>508103; 600878</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>428685; 549704</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>